--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTemp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTemp.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616D977-1845-4F6D-8341-DAD1C249A54E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF74FB3-1C24-4637-B2DC-CAFE71A4A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t xml:space="preserve">Entdy = ,AND Kinbr = ,AND TlrNo = ,AND TxtNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>txtNoLastFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">TlrNo = </t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CreateDate desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -979,23 +991,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.25" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.5" style="4"/>
+    <col min="3" max="3" width="34.21875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.21875" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="38" t="s">
         <v>7</v>
       </c>
@@ -1010,7 +1022,7 @@
       <c r="F1" s="9"/>
       <c r="G1" s="24"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="38"/>
       <c r="B2" s="39"/>
       <c r="C2" s="10" t="s">
@@ -1023,7 +1035,7 @@
       <c r="F2" s="12"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>8</v>
       </c>
@@ -1038,7 +1050,7 @@
       <c r="F3" s="12"/>
       <c r="G3" s="25"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="38" t="s">
         <v>10</v>
       </c>
@@ -1049,7 +1061,7 @@
       <c r="F4" s="12"/>
       <c r="G4" s="25"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="41" t="s">
         <v>4</v>
       </c>
@@ -1060,7 +1072,7 @@
       <c r="F5" s="12"/>
       <c r="G5" s="25"/>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="38" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1083,7 @@
       <c r="F6" s="12"/>
       <c r="G6" s="25"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="38" t="s">
         <v>6</v>
       </c>
@@ -1082,7 +1094,7 @@
       <c r="F7" s="12"/>
       <c r="G7" s="25"/>
     </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>0</v>
       </c>
@@ -1105,7 +1117,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
         <v>59</v>
       </c>
@@ -1124,7 +1136,7 @@
       <c r="F9" s="34"/>
       <c r="G9" s="36"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
         <v>60</v>
       </c>
@@ -1143,7 +1155,7 @@
       <c r="F10" s="19"/>
       <c r="G10" s="17"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
         <v>61</v>
       </c>
@@ -1162,7 +1174,7 @@
       <c r="F11" s="19"/>
       <c r="G11" s="17"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
         <v>62</v>
       </c>
@@ -1181,7 +1193,7 @@
       <c r="F12" s="19"/>
       <c r="G12" s="17"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
         <v>63</v>
       </c>
@@ -1200,7 +1212,7 @@
       <c r="F13" s="19"/>
       <c r="G13" s="17"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
         <v>64</v>
       </c>
@@ -1219,7 +1231,7 @@
       <c r="F14" s="15"/>
       <c r="G14" s="16"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
         <v>65</v>
       </c>
@@ -1238,7 +1250,7 @@
       <c r="F15" s="15"/>
       <c r="G15" s="16"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>58</v>
       </c>
@@ -1257,7 +1269,7 @@
       <c r="F16" s="15"/>
       <c r="G16" s="16"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
         <v>66</v>
       </c>
@@ -1274,7 +1286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
         <v>67</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
         <v>68</v>
       </c>
@@ -1308,7 +1320,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
         <v>69</v>
       </c>
@@ -1343,22 +1355,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
@@ -1369,7 +1381,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>49</v>
       </c>
@@ -1378,6 +1390,17 @@
       </c>
       <c r="C2" s="2" t="s">
         <v>54</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTemp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTemp.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\SKL\DB\GenTables\XX-系統\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF74FB3-1C24-4637-B2DC-CAFE71A4A9F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -165,19 +164,11 @@
     <t>TxTime</t>
   </si>
   <si>
-    <t>TxTemp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>交易暫存</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>分行別</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>交易員代號</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -355,12 +346,20 @@
   <si>
     <t>CreateDate desc</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TxTemp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用者員編</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -653,7 +652,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="一般 2" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -744,23 +743,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -796,23 +778,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -988,18 +953,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G20"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="34.21875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="33.88671875" style="2" customWidth="1"/>
     <col min="4" max="4" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="6.21875" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
@@ -1013,10 +978,10 @@
       </c>
       <c r="B1" s="39"/>
       <c r="C1" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="D1" s="27" t="s">
         <v>21</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>22</v>
       </c>
       <c r="E1" s="8"/>
       <c r="F1" s="9"/>
@@ -1041,10 +1006,10 @@
       </c>
       <c r="B3" s="41"/>
       <c r="C3" s="7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E3" s="12"/>
       <c r="F3" s="12"/>
@@ -1119,111 +1084,111 @@
     </row>
     <row r="9" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="37" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B9" s="34" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="34" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>56</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>57</v>
-      </c>
       <c r="E9" s="37" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F9" s="34"/>
       <c r="G9" s="36"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="37" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B10" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C10" s="28" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="17"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="37" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C11" s="29" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F11" s="19"/>
       <c r="G11" s="17"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="37" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C12" s="30" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F12" s="19"/>
       <c r="G12" s="17"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="37" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F13" s="19"/>
       <c r="G13" s="17"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="16" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C14" s="32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D14" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E14" s="15">
         <v>3600</v>
@@ -1233,16 +1198,16 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="37" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B15" s="16" t="s">
         <v>19</v>
       </c>
       <c r="C15" s="32" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="15">
         <v>8</v>
@@ -1252,7 +1217,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B16" s="16" t="s">
         <v>20</v>
@@ -1261,7 +1226,7 @@
         <v>17</v>
       </c>
       <c r="D16" s="21" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="15">
         <v>8</v>
@@ -1271,16 +1236,16 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="37" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B17" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="21" t="s">
         <v>38</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D17" s="21" t="s">
-        <v>40</v>
       </c>
       <c r="E17" s="15">
         <v>6</v>
@@ -1288,33 +1253,33 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B18" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D18" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="E18" s="15" t="s">
         <v>42</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>43</v>
-      </c>
-      <c r="E18" s="15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B19" s="16" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D19" s="21" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E19" s="15">
         <v>6</v>
@@ -1322,19 +1287,19 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B20" s="16" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E20" s="15" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
@@ -1354,10 +1319,10 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
@@ -1383,24 +1348,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C3" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTemp.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/XX-系統/TxTemp.xlsx
@@ -1,26 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="T:\SKL\DB\GenTables\XX-系統\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8688"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
     <sheet name="DBS" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="77">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -287,10 +282,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>decimal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>8</t>
   </si>
   <si>
@@ -353,14 +344,26 @@
   </si>
   <si>
     <t>使用者員編</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>findSeqNoFirst</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>SeqNo =</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> decimald</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="11">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -522,11 +525,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -535,9 +538,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,10 +547,10 @@
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -559,9 +559,6 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -595,7 +592,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -604,7 +601,7 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -622,20 +619,11 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -710,7 +698,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -742,10 +730,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -777,7 +764,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -953,352 +939,352 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="21.5" defaultRowHeight="16.5"/>
   <cols>
-    <col min="1" max="1" width="5.109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="5.125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19" style="3" customWidth="1"/>
-    <col min="3" max="3" width="33.88671875" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.88671875" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.21875" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.77734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="21.44140625" style="4"/>
+    <col min="3" max="3" width="33.875" style="2" customWidth="1"/>
+    <col min="4" max="4" width="11.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="6.25" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.75" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.625" style="21" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="21.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="7" t="s">
+      <c r="B1" s="34"/>
+      <c r="C1" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="D1" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" s="7"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="22"/>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="33"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="36" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="33" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="35"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="23"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="6"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="23"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="35"/>
+      <c r="C7" s="6"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="23"/>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="G8" s="24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" s="27" customFormat="1">
+      <c r="A9" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="32"/>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E10" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="27" t="s">
         <v>73</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="9"/>
-      <c r="G1" s="24"/>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="38"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="12"/>
-      <c r="F2" s="12"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="41" t="s">
+      <c r="D11" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C12" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="E12" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="13">
+        <v>3600</v>
+      </c>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14"/>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" s="17" t="s">
+        <v>62</v>
+      </c>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E15" s="13">
         <v>8</v>
       </c>
-      <c r="B3" s="41"/>
-      <c r="C3" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="25"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="40"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="25"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="41" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="41"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="39"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="12"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="38" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="40"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="10" t="s">
-        <v>0</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" s="26" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" s="33" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="37" t="s">
-        <v>57</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>53</v>
-      </c>
-      <c r="C9" s="35" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="34" t="s">
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="36"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="37" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="17"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="19"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="37" t="s">
-        <v>60</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="19"/>
-      <c r="G12" s="17"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="F13" s="19"/>
-      <c r="G13" s="17"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="32" t="s">
-        <v>28</v>
-      </c>
-      <c r="D14" s="21" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="15">
-        <v>3600</v>
-      </c>
-      <c r="F14" s="15"/>
-      <c r="G14" s="16"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="B16" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E16" s="13">
+        <v>8</v>
+      </c>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14"/>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="B15" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="32" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E15" s="15">
-        <v>8</v>
-      </c>
-      <c r="F15" s="15"/>
-      <c r="G15" s="16"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="B16" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C16" s="22" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="21" t="s">
-        <v>32</v>
-      </c>
-      <c r="E16" s="15">
-        <v>8</v>
-      </c>
-      <c r="F16" s="15"/>
-      <c r="G16" s="16"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="14" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="D17" s="21" t="s">
+      <c r="D17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="15">
+      <c r="E17" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="B18" s="16" t="s">
+    <row r="18" spans="1:5">
+      <c r="A18" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>39</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="21" t="s">
+      <c r="D18" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="B19" s="16" t="s">
+    <row r="19" spans="1:5">
+      <c r="A19" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>43</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="21" t="s">
+      <c r="D19" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E19" s="15">
+      <c r="E19" s="13">
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="16" t="s">
+    <row r="20" spans="1:5">
+      <c r="A20" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="13" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1319,53 +1305,64 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="16" style="2" customWidth="1"/>
-    <col min="2" max="2" width="71.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="71.125" style="2" customWidth="1"/>
     <col min="3" max="3" width="17" style="2" customWidth="1"/>
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+    <row r="1" spans="1:3" ht="18" customHeight="1">
+      <c r="A1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>72</v>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
